--- a/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.14.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.14.xlsx
@@ -241,6 +241,9 @@
     <t>gives-l/s</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">יש, יש שני סוגים של סכרת </t>
   </si>
   <si>
@@ -254,9 +257,6 @@
   </si>
   <si>
     <t>מתמודדים איתה, קשה להתמודד אתה.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>זה קשה זה נכון.</t>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1015,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1309,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1617,7 +1617,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -1645,7 +1645,7 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -1659,7 +1659,7 @@
         <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>34</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
         <v>34</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1754,10 +1754,10 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1771,7 +1771,7 @@
         <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -1782,7 +1782,7 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1799,7 +1799,7 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1810,7 +1810,7 @@
         <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -1883,7 +1883,7 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -1925,7 +1925,7 @@
         <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -1981,7 +1981,7 @@
         <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -2135,7 +2135,7 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2244,7 +2244,7 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2275,7 +2275,7 @@
         <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -2359,7 +2359,7 @@
         <v>50</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -2401,7 +2401,7 @@
         <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -2429,7 +2429,7 @@
         <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -2443,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -2611,7 +2611,7 @@
         <v>50</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -2639,7 +2639,7 @@
         <v>30</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -2681,7 +2681,7 @@
         <v>99</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -2793,7 +2793,7 @@
         <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
